--- a/School.xlsx
+++ b/School.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panda\OneDrive - University of Denver\School\5 2020 Winter\R\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huxia\OneDrive - University of Denver\2020Winter\R\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{648D9408-EA0D-460E-85DE-64265B8D20E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A5D3E7DE-221A-4A26-89A8-A606D014B488}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{648D9408-EA0D-460E-85DE-64265B8D20E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EA7E7DDF-5BD8-491B-B37B-03A6FDB9A490}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4189473F-852E-4C8D-88EC-E9D53CFABF0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4189473F-852E-4C8D-88EC-E9D53CFABF0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary-nonzero" sheetId="1" r:id="rId1"/>
+    <sheet name="Map" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary-nonzero'!$A$1:$R$120</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="148">
   <si>
     <t>Rating</t>
   </si>
@@ -119,13 +120,379 @@
   </si>
   <si>
     <t>CMASScience(2019)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Adventure Elementary</t>
+  </si>
+  <si>
+    <t>Challenge School</t>
+  </si>
+  <si>
+    <t>Farrell B. Howell Ece-8 School</t>
+  </si>
+  <si>
+    <t>Monterey Community School</t>
+  </si>
+  <si>
+    <t>Welby Community School</t>
+  </si>
+  <si>
+    <t>Denver Language School</t>
+  </si>
+  <si>
+    <t>Downtown Denver Expeditionary School</t>
+  </si>
+  <si>
+    <t>Highline Academy Northeast</t>
+  </si>
+  <si>
+    <t>Highline Academy Southeast</t>
+  </si>
+  <si>
+    <t>KIPP Northeast Elementary</t>
+  </si>
+  <si>
+    <t>Monarch Montessori</t>
+  </si>
+  <si>
+    <t>Odyssey School Of Denver</t>
+  </si>
+  <si>
+    <t>Omar D Blair Charter School</t>
+  </si>
+  <si>
+    <t>Ricardo Flores Magon Academy</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Prep: Creekside</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Prep: Southwest</t>
+  </si>
+  <si>
+    <t>Soar At Green Valley Ranch</t>
+  </si>
+  <si>
+    <t>Strive Prep - Ruby Hill</t>
+  </si>
+  <si>
+    <t>University Prep - Arapahoe St.</t>
+  </si>
+  <si>
+    <t>University Prep - Steele St.</t>
+  </si>
+  <si>
+    <t>Vanguard Classical School - West</t>
+  </si>
+  <si>
+    <t>Wyatt Academy</t>
+  </si>
+  <si>
+    <t>Academia Ana Marie Sandoval</t>
+  </si>
+  <si>
+    <t>Asbury Elementary School</t>
+  </si>
+  <si>
+    <t>Ashley Elementary School</t>
+  </si>
+  <si>
+    <t>Barnum Elementary School</t>
+  </si>
+  <si>
+    <t>Beach Court Elementary School</t>
+  </si>
+  <si>
+    <t>Bradley International School</t>
+  </si>
+  <si>
+    <t>Bromwell Elementary School</t>
+  </si>
+  <si>
+    <t>Brown International Academy</t>
+  </si>
+  <si>
+    <t>Bryant Webster Dual Language Ece-8 School</t>
+  </si>
+  <si>
+    <t>Carson Elementary School</t>
+  </si>
+  <si>
+    <t>Castro Elementary School</t>
+  </si>
+  <si>
+    <t>Centennial A School For Expeditionary Learning</t>
+  </si>
+  <si>
+    <t>Center For Talent Development At Greenlee</t>
+  </si>
+  <si>
+    <t>Charles M. Schenck (Cms) Community School</t>
+  </si>
+  <si>
+    <t>Cheltenham Elementary School</t>
+  </si>
+  <si>
+    <t>Clara E. Metz Elementary School</t>
+  </si>
+  <si>
+    <t>Cole Arts And Science Academy</t>
+  </si>
+  <si>
+    <t>Colfax Elementary School</t>
+  </si>
+  <si>
+    <t>College View Elementary School</t>
+  </si>
+  <si>
+    <t>Columbian Elementary School</t>
+  </si>
+  <si>
+    <t>Columbine Elementary School</t>
+  </si>
+  <si>
+    <t>Cory Elementary School</t>
+  </si>
+  <si>
+    <t>Cowell Elementary School</t>
+  </si>
+  <si>
+    <t>Creativity Challenge Community</t>
+  </si>
+  <si>
+    <t>Dcis At Ford</t>
+  </si>
+  <si>
+    <t>Denison Montessori School</t>
+  </si>
+  <si>
+    <t>Denver Center For International Studies At Fairmon</t>
+  </si>
+  <si>
+    <t>Denver Green School</t>
+  </si>
+  <si>
+    <t>Dora Moore Ece-8 School</t>
+  </si>
+  <si>
+    <t>Doull Elementary School</t>
+  </si>
+  <si>
+    <t>Eagleton Elementary School</t>
+  </si>
+  <si>
+    <t>Edison Elementary School</t>
+  </si>
+  <si>
+    <t>Ellis Elementary School</t>
+  </si>
+  <si>
+    <t>Fairview Elementary School</t>
+  </si>
+  <si>
+    <t>Federal Heights Elementary School</t>
+  </si>
+  <si>
+    <t>Florida Pitt-Waller Ece-8 School</t>
+  </si>
+  <si>
+    <t>Force Elementary School</t>
+  </si>
+  <si>
+    <t>Francis M. Day Elementary School</t>
+  </si>
+  <si>
+    <t>Garden Place Academy</t>
+  </si>
+  <si>
+    <t>Godsman Elementary School</t>
+  </si>
+  <si>
+    <t>Goldrick Elementary School</t>
+  </si>
+  <si>
+    <t>Grant Ranch Ece-8 School</t>
+  </si>
+  <si>
+    <t>Green Valley Elementary School</t>
+  </si>
+  <si>
+    <t>Gust Elementary School</t>
+  </si>
+  <si>
+    <t>High Technical Elementary School</t>
+  </si>
+  <si>
+    <t>Holly Hills Elementary School</t>
+  </si>
+  <si>
+    <t>Holm Elementary School</t>
+  </si>
+  <si>
+    <t>Isabella Bird Community School</t>
+  </si>
+  <si>
+    <t>Joe Shoemaker School</t>
+  </si>
+  <si>
+    <t>John H. Amesse Elementary</t>
+  </si>
+  <si>
+    <t>Johnson Elementary School</t>
+  </si>
+  <si>
+    <t>Josephine Hodgkins Elementary School</t>
+  </si>
+  <si>
+    <t>Kaiser Elementary School</t>
+  </si>
+  <si>
+    <t>Knapp Elementary School</t>
+  </si>
+  <si>
+    <t>Lena Archuleta Elementary School</t>
+  </si>
+  <si>
+    <t>Lincoln Elementary School</t>
+  </si>
+  <si>
+    <t>Lowry Elementary School</t>
+  </si>
+  <si>
+    <t>Marie L. Greenwood Academy</t>
+  </si>
+  <si>
+    <t>Marrama Elementary School</t>
+  </si>
+  <si>
+    <t>Mathematics And Science Leadership Academy</t>
+  </si>
+  <si>
+    <t>Maxwell Elementary School</t>
+  </si>
+  <si>
+    <t>McGlone Academy</t>
+  </si>
+  <si>
+    <t>McKinley-Thatcher Elementary School</t>
+  </si>
+  <si>
+    <t>McMeen Elementary School</t>
+  </si>
+  <si>
+    <t>Montclair School Of Academics And Enrichment</t>
+  </si>
+  <si>
+    <t>Munroe Elementary School</t>
+  </si>
+  <si>
+    <t>Newlon Elementary School</t>
+  </si>
+  <si>
+    <t>North Star Elementary School</t>
+  </si>
+  <si>
+    <t>Oakland Elementary</t>
+  </si>
+  <si>
+    <t>Palmer Elementary School</t>
+  </si>
+  <si>
+    <t>Park Hill School</t>
+  </si>
+  <si>
+    <t>Place Bridge Academy</t>
+  </si>
+  <si>
+    <t>Polaris Elementary School</t>
+  </si>
+  <si>
+    <t>Sabin World School</t>
+  </si>
+  <si>
+    <t>Samuels Elementary School</t>
+  </si>
+  <si>
+    <t>Schmitt Elementary School</t>
+  </si>
+  <si>
+    <t>Sherrelwood Elementary School</t>
+  </si>
+  <si>
+    <t>Skyline Vista Elementary School</t>
+  </si>
+  <si>
+    <t>Slavens K-8 School</t>
+  </si>
+  <si>
+    <t>Smith Elementary School</t>
+  </si>
+  <si>
+    <t>Southmoor Elementary School</t>
+  </si>
+  <si>
+    <t>Steck Elementary School</t>
+  </si>
+  <si>
+    <t>Stedman Elementary School</t>
+  </si>
+  <si>
+    <t>Steele Elementary School</t>
+  </si>
+  <si>
+    <t>Swansea Elementary School</t>
+  </si>
+  <si>
+    <t>Swigert International School</t>
+  </si>
+  <si>
+    <t>Teller Elementary School</t>
+  </si>
+  <si>
+    <t>Traylor Academy</t>
+  </si>
+  <si>
+    <t>Trevista At Horace Mann</t>
+  </si>
+  <si>
+    <t>University Park Elementary School</t>
+  </si>
+  <si>
+    <t>Valdez Elementary School</t>
+  </si>
+  <si>
+    <t>Valley View K-8</t>
+  </si>
+  <si>
+    <t>Valverde Elementary School</t>
+  </si>
+  <si>
+    <t>Westerly Creek Elementary</t>
+  </si>
+  <si>
+    <t>Whittier Ece-8 School</t>
+  </si>
+  <si>
+    <t>William (Bill) Roberts Ece-8 School</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Name_Rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +513,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -215,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -242,6 +623,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1179D40-2470-42E2-9C4B-D999E12AD049}">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="U4" sqref="U4:U5"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6951,6 +7342,2185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5B3698-CAD7-4DEE-9733-E4F7C9A523F5}">
+  <dimension ref="A1:E120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT(A2,", ",B2)</f>
+        <v>Adventure Elementary, 23</v>
+      </c>
+      <c r="D2">
+        <v>-104.990503</v>
+      </c>
+      <c r="E2">
+        <v>39.836734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C66" si="0">_xlfn.CONCAT(A3,", ",B3)</f>
+        <v>Challenge School, 98</v>
+      </c>
+      <c r="D3">
+        <v>-104.876546</v>
+      </c>
+      <c r="E3">
+        <v>39.697862000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Farrell B. Howell Ece-8 School, 6.3</v>
+      </c>
+      <c r="D4">
+        <v>-104.832517</v>
+      </c>
+      <c r="E4">
+        <v>39.776691999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Monterey Community School, 21.8</v>
+      </c>
+      <c r="D5">
+        <v>-104.96085600000001</v>
+      </c>
+      <c r="E5">
+        <v>39.850669000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Welby Community School, 37.4</v>
+      </c>
+      <c r="D6">
+        <v>-104.974537</v>
+      </c>
+      <c r="E6">
+        <v>39.837657999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Denver Language School, 85.4</v>
+      </c>
+      <c r="D7">
+        <v>-104.90988299999999</v>
+      </c>
+      <c r="E7">
+        <v>39.723159000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Downtown Denver Expeditionary School, 59.4</v>
+      </c>
+      <c r="D8">
+        <v>-104.985968</v>
+      </c>
+      <c r="E8">
+        <v>39.745686999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Highline Academy Northeast, 19.3</v>
+      </c>
+      <c r="D9">
+        <v>-104.76139000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.795400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Highline Academy Southeast, 74.5</v>
+      </c>
+      <c r="D10">
+        <v>-104.930747</v>
+      </c>
+      <c r="E10">
+        <v>39.677137999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>KIPP Northeast Elementary, 47.2</v>
+      </c>
+      <c r="D11">
+        <v>-104.76139000000001</v>
+      </c>
+      <c r="E11">
+        <v>39.795400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Monarch Montessori, 13.2</v>
+      </c>
+      <c r="D12">
+        <v>-104.84719800000001</v>
+      </c>
+      <c r="E12">
+        <v>39.786316999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Odyssey School Of Denver, 73.2</v>
+      </c>
+      <c r="D13">
+        <v>-104.91144300000001</v>
+      </c>
+      <c r="E13">
+        <v>39.748066000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Omar D Blair Charter School, 31.7</v>
+      </c>
+      <c r="D14">
+        <v>-104.765823</v>
+      </c>
+      <c r="E14">
+        <v>39.786735999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ricardo Flores Magon Academy, 5.4</v>
+      </c>
+      <c r="D15">
+        <v>-105.03523300000001</v>
+      </c>
+      <c r="E15">
+        <v>39.793213999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocky Mountain Prep: Creekside, 60</v>
+      </c>
+      <c r="D16">
+        <v>-104.897503</v>
+      </c>
+      <c r="E16">
+        <v>39.679237999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocky Mountain Prep: Southwest, 23.8</v>
+      </c>
+      <c r="D17">
+        <v>-105.02774700000001</v>
+      </c>
+      <c r="E17">
+        <v>39.700029000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Soar At Green Valley Ranch, 32.2</v>
+      </c>
+      <c r="D18">
+        <v>-104.781434</v>
+      </c>
+      <c r="E18">
+        <v>39.785648999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Strive Prep - Ruby Hill, 39.2</v>
+      </c>
+      <c r="D19">
+        <v>-105.018688</v>
+      </c>
+      <c r="E19">
+        <v>39.677607000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>University Prep - Arapahoe St., 37.2</v>
+      </c>
+      <c r="D20">
+        <v>-104.985794</v>
+      </c>
+      <c r="E20">
+        <v>39.7562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>University Prep - Steele St., 29.8</v>
+      </c>
+      <c r="D21">
+        <v>-104.949428</v>
+      </c>
+      <c r="E21">
+        <v>39.769061999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Vanguard Classical School - West, 17.4</v>
+      </c>
+      <c r="D22">
+        <v>-104.888969</v>
+      </c>
+      <c r="E22">
+        <v>39.729092999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Wyatt Academy, 19.9</v>
+      </c>
+      <c r="D23">
+        <v>-104.96826799999999</v>
+      </c>
+      <c r="E23">
+        <v>39.767201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Academia Ana Marie Sandoval, 42</v>
+      </c>
+      <c r="D24">
+        <v>-105.014512</v>
+      </c>
+      <c r="E24">
+        <v>39.767516000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asbury Elementary School, 80.4</v>
+      </c>
+      <c r="D25">
+        <v>-104.971665</v>
+      </c>
+      <c r="E25">
+        <v>39.679437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ashley Elementary School, 15.1</v>
+      </c>
+      <c r="D26">
+        <v>-104.89860899999999</v>
+      </c>
+      <c r="E26">
+        <v>39.745876000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Barnum Elementary School, 24</v>
+      </c>
+      <c r="D27">
+        <v>-105.028943</v>
+      </c>
+      <c r="E27">
+        <v>39.717928000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Beach Court Elementary School, 11.7</v>
+      </c>
+      <c r="D28">
+        <v>-105.017578</v>
+      </c>
+      <c r="E28">
+        <v>39.786532000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>83.8</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bradley International School, 83.8</v>
+      </c>
+      <c r="D29">
+        <v>-104.929815</v>
+      </c>
+      <c r="E29">
+        <v>39.662787999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1">
+        <v>92.9</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bromwell Elementary School, 92.9</v>
+      </c>
+      <c r="D30">
+        <v>-104.956947</v>
+      </c>
+      <c r="E30">
+        <v>39.722363999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Brown International Academy, 64.3</v>
+      </c>
+      <c r="D31">
+        <v>-105.034481</v>
+      </c>
+      <c r="E31">
+        <v>39.754043000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bryant Webster Dual Language Ece-8 School, 31.8</v>
+      </c>
+      <c r="D32">
+        <v>-105.008171</v>
+      </c>
+      <c r="E32">
+        <v>39.767266999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Carson Elementary School, 96.8</v>
+      </c>
+      <c r="D33">
+        <v>-104.924273</v>
+      </c>
+      <c r="E33">
+        <v>39.717036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Castro Elementary School, 11.1</v>
+      </c>
+      <c r="D34">
+        <v>-105.03559300000001</v>
+      </c>
+      <c r="E34">
+        <v>39.701256999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Centennial A School For Expeditionary Learning, 21</v>
+      </c>
+      <c r="D35">
+        <v>-105.041731</v>
+      </c>
+      <c r="E35">
+        <v>39.781433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Center For Talent Development At Greenlee, 20.8</v>
+      </c>
+      <c r="D36">
+        <v>-105.001424</v>
+      </c>
+      <c r="E36">
+        <v>39.734496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Charles M. Schenck (Cms) Community School, 22.5</v>
+      </c>
+      <c r="D37">
+        <v>-105.034142</v>
+      </c>
+      <c r="E37">
+        <v>39.692900000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cheltenham Elementary School, 13.5</v>
+      </c>
+      <c r="D38">
+        <v>-105.031353</v>
+      </c>
+      <c r="E38">
+        <v>39.742283999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Clara E. Metz Elementary School, 14.7</v>
+      </c>
+      <c r="D39">
+        <v>-105.01396099999999</v>
+      </c>
+      <c r="E39">
+        <v>39.844890999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cole Arts And Science Academy, 4.5</v>
+      </c>
+      <c r="D40">
+        <v>-104.96966500000001</v>
+      </c>
+      <c r="E40">
+        <v>39.762610000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Colfax Elementary School, 15.8</v>
+      </c>
+      <c r="D41">
+        <v>-105.043865</v>
+      </c>
+      <c r="E41">
+        <v>39.740985999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>College View Elementary School, 5.9</v>
+      </c>
+      <c r="D42">
+        <v>-105.023428</v>
+      </c>
+      <c r="E42">
+        <v>39.668320000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Columbian Elementary School, 19.9</v>
+      </c>
+      <c r="D43">
+        <v>-105.02346900000001</v>
+      </c>
+      <c r="E43">
+        <v>39.772204000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Columbine Elementary School, 11.7</v>
+      </c>
+      <c r="D44">
+        <v>-104.956368</v>
+      </c>
+      <c r="E44">
+        <v>39.757607999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="1">
+        <v>98.6</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cory Elementary School, 98.6</v>
+      </c>
+      <c r="D45">
+        <v>-104.949546</v>
+      </c>
+      <c r="E45">
+        <v>39.688828000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cowell Elementary School, 27.2</v>
+      </c>
+      <c r="D46">
+        <v>-105.04574599999999</v>
+      </c>
+      <c r="E46">
+        <v>39.732134000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Creativity Challenge Community, 90.4</v>
+      </c>
+      <c r="D47">
+        <v>-104.945851</v>
+      </c>
+      <c r="E47">
+        <v>39.688737000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dcis At Ford, 18.3</v>
+      </c>
+      <c r="D48">
+        <v>-104.816705</v>
+      </c>
+      <c r="E48">
+        <v>39.792858000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Denison Montessori School, 34</v>
+      </c>
+      <c r="D49">
+        <v>-105.05163899999999</v>
+      </c>
+      <c r="E49">
+        <v>39.682988999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="1">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Denver Center For International Studies At Fairmon, 26</v>
+      </c>
+      <c r="D50">
+        <v>-104.994238</v>
+      </c>
+      <c r="E50">
+        <v>39.720160999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Denver Green School, 43.4</v>
+      </c>
+      <c r="D51">
+        <v>-104.909015</v>
+      </c>
+      <c r="E51">
+        <v>39.706622000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dora Moore Ece-8 School, 30.2</v>
+      </c>
+      <c r="D52">
+        <v>-104.97393700000001</v>
+      </c>
+      <c r="E52">
+        <v>39.729719000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Doull Elementary School, 15.2</v>
+      </c>
+      <c r="D53">
+        <v>-105.044676</v>
+      </c>
+      <c r="E53">
+        <v>39.673008000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Eagleton Elementary School, 16.9</v>
+      </c>
+      <c r="D54">
+        <v>-105.028508</v>
+      </c>
+      <c r="E54">
+        <v>39.730798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Edison Elementary School, 78.7</v>
+      </c>
+      <c r="D55">
+        <v>-105.04033800000001</v>
+      </c>
+      <c r="E55">
+        <v>39.764412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ellis Elementary School, 7.7</v>
+      </c>
+      <c r="D56">
+        <v>-104.932742</v>
+      </c>
+      <c r="E56">
+        <v>39.686610000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Fairview Elementary School, 12.3</v>
+      </c>
+      <c r="D57">
+        <v>-105.020741</v>
+      </c>
+      <c r="E57">
+        <v>39.734085999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Fairview Elementary School, 12.3</v>
+      </c>
+      <c r="D58">
+        <v>-105.020741</v>
+      </c>
+      <c r="E58">
+        <v>39.734085999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Federal Heights Elementary School, 10.1</v>
+      </c>
+      <c r="D59">
+        <v>-105.01712999999999</v>
+      </c>
+      <c r="E59">
+        <v>39.870486999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Florida Pitt-Waller Ece-8 School, 11.8</v>
+      </c>
+      <c r="D60">
+        <v>-104.735843</v>
+      </c>
+      <c r="E60">
+        <v>39.790030999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Force Elementary School, 28.8</v>
+      </c>
+      <c r="D61">
+        <v>-105.04703600000001</v>
+      </c>
+      <c r="E61">
+        <v>39.688834999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Francis M. Day Elementary School, 10.6</v>
+      </c>
+      <c r="D62">
+        <v>-105.00814099999999</v>
+      </c>
+      <c r="E62">
+        <v>39.823808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Garden Place Academy, 13.6</v>
+      </c>
+      <c r="D63">
+        <v>-104.986019</v>
+      </c>
+      <c r="E63">
+        <v>39.776964999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Godsman Elementary School, 30.1</v>
+      </c>
+      <c r="D64">
+        <v>-105.012754</v>
+      </c>
+      <c r="E64">
+        <v>39.690196999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Goldrick Elementary School, 7.2</v>
+      </c>
+      <c r="D65">
+        <v>-105.014768</v>
+      </c>
+      <c r="E65">
+        <v>39.697488999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grant Ranch Ece-8 School, 24.5</v>
+      </c>
+      <c r="D66">
+        <v>-105.06424</v>
+      </c>
+      <c r="E66">
+        <v>39.616939000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" ref="C67:C120" si="1">_xlfn.CONCAT(A67,", ",B67)</f>
+        <v>Green Valley Elementary School, 18.3</v>
+      </c>
+      <c r="D67">
+        <v>-104.74948000000001</v>
+      </c>
+      <c r="E67">
+        <v>39.772685000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="1">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Gust Elementary School, 22</v>
+      </c>
+      <c r="D68">
+        <v>-105.030925</v>
+      </c>
+      <c r="E68">
+        <v>39.667009999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>High Technical Elementary School, 79.8</v>
+      </c>
+      <c r="D69">
+        <v>-104.888892</v>
+      </c>
+      <c r="E69">
+        <v>39.789321999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Holly Hills Elementary School, 29.7</v>
+      </c>
+      <c r="D70">
+        <v>-104.916797</v>
+      </c>
+      <c r="E70">
+        <v>39.663684000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Holm Elementary School, 39.7</v>
+      </c>
+      <c r="D71">
+        <v>-104.89263099999999</v>
+      </c>
+      <c r="E71">
+        <v>39.657978999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Isabella Bird Community School, 73.1</v>
+      </c>
+      <c r="D72">
+        <v>-104.88248299999999</v>
+      </c>
+      <c r="E72">
+        <v>39.771658000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="1">
+        <v>21</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Joe Shoemaker School, 21</v>
+      </c>
+      <c r="D73">
+        <v>-104.867001</v>
+      </c>
+      <c r="E73">
+        <v>39.654851000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>John H. Amesse Elementary, 9.8</v>
+      </c>
+      <c r="D74">
+        <v>-104.84242999999999</v>
+      </c>
+      <c r="E74">
+        <v>39.793812000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Johnson Elementary School, 9.9</v>
+      </c>
+      <c r="D75">
+        <v>-105.02901199999999</v>
+      </c>
+      <c r="E75">
+        <v>39.683134000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Josephine Hodgkins Elementary School, 15.4</v>
+      </c>
+      <c r="D76">
+        <v>-105.03210199999999</v>
+      </c>
+      <c r="E76">
+        <v>39.819063</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Kaiser Elementary School, 6.9</v>
+      </c>
+      <c r="D77">
+        <v>-105.04053500000001</v>
+      </c>
+      <c r="E77">
+        <v>39.634183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Knapp Elementary School, 30.8</v>
+      </c>
+      <c r="D78">
+        <v>-105.04591600000001</v>
+      </c>
+      <c r="E78">
+        <v>39.708160999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Lena Archuleta Elementary School, 56.7</v>
+      </c>
+      <c r="D79">
+        <v>-104.800388</v>
+      </c>
+      <c r="E79">
+        <v>39.796106999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Lincoln Elementary School, 71.2</v>
+      </c>
+      <c r="D80">
+        <v>-104.98102799999999</v>
+      </c>
+      <c r="E80">
+        <v>39.703243999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Lowry Elementary School, 46.2</v>
+      </c>
+      <c r="D81">
+        <v>-104.896468</v>
+      </c>
+      <c r="E81">
+        <v>39.712913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Marie L. Greenwood Academy, 6.8</v>
+      </c>
+      <c r="D82">
+        <v>-104.81793399999999</v>
+      </c>
+      <c r="E82">
+        <v>39.786873</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Marrama Elementary School, 19.1</v>
+      </c>
+      <c r="D83">
+        <v>-104.764043</v>
+      </c>
+      <c r="E83">
+        <v>39.772246000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Mathematics And Science Leadership Academy, 16.9</v>
+      </c>
+      <c r="D84">
+        <v>-105.011252</v>
+      </c>
+      <c r="E84">
+        <v>39.708469000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Maxwell Elementary School, 13.6</v>
+      </c>
+      <c r="D85">
+        <v>-104.82462200000001</v>
+      </c>
+      <c r="E85">
+        <v>39.78557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>McGlone Academy, 9.7</v>
+      </c>
+      <c r="D86">
+        <v>-104.838882</v>
+      </c>
+      <c r="E86">
+        <v>39.780054999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>McKinley-Thatcher Elementary School, 82.7</v>
+      </c>
+      <c r="D87">
+        <v>-104.983799</v>
+      </c>
+      <c r="E87">
+        <v>39.693765999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>McMeen Elementary School, 35.4</v>
+      </c>
+      <c r="D88">
+        <v>-104.92050999999999</v>
+      </c>
+      <c r="E88">
+        <v>39.697913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Montclair School Of Academics And Enrichment, 27.2</v>
+      </c>
+      <c r="D89">
+        <v>-104.909358</v>
+      </c>
+      <c r="E89">
+        <v>39.734493999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Munroe Elementary School, 11.2</v>
+      </c>
+      <c r="D90">
+        <v>-105.031251</v>
+      </c>
+      <c r="E90">
+        <v>39.707560000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Newlon Elementary School, 23.4</v>
+      </c>
+      <c r="D91">
+        <v>-105.04562</v>
+      </c>
+      <c r="E91">
+        <v>39.721800999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>North Star Elementary School, 11.9</v>
+      </c>
+      <c r="D92">
+        <v>-104.992678</v>
+      </c>
+      <c r="E92">
+        <v>39.855474000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="1">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Oakland Elementary, 12</v>
+      </c>
+      <c r="D93">
+        <v>-104.82011199999999</v>
+      </c>
+      <c r="E93">
+        <v>39.777631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Palmer Elementary School, 37.1</v>
+      </c>
+      <c r="D94">
+        <v>-104.924751</v>
+      </c>
+      <c r="E94">
+        <v>39.731920000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Park Hill School, 95.2</v>
+      </c>
+      <c r="D95">
+        <v>-104.929315</v>
+      </c>
+      <c r="E95">
+        <v>39.744889999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="1">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Place Bridge Academy, 7</v>
+      </c>
+      <c r="D96">
+        <v>-104.906268</v>
+      </c>
+      <c r="E96">
+        <v>39.688070000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Polaris Elementary School, 99.7</v>
+      </c>
+      <c r="D97">
+        <v>-104.982158</v>
+      </c>
+      <c r="E97">
+        <v>39.749581999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sabin World School, 57.2</v>
+      </c>
+      <c r="D98">
+        <v>-105.04541</v>
+      </c>
+      <c r="E98">
+        <v>39.659472999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="1">
+        <v>22</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Samuels Elementary School, 22</v>
+      </c>
+      <c r="D99">
+        <v>-104.891547</v>
+      </c>
+      <c r="E99">
+        <v>39.642983000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schmitt Elementary School, 6.2</v>
+      </c>
+      <c r="D100">
+        <v>-105.011961</v>
+      </c>
+      <c r="E100">
+        <v>39.683202000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sherrelwood Elementary School, 17.4</v>
+      </c>
+      <c r="D101">
+        <v>-105.00181000000001</v>
+      </c>
+      <c r="E101">
+        <v>39.843559999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Skyline Vista Elementary School, 26.9</v>
+      </c>
+      <c r="D102">
+        <v>-105.01629699999999</v>
+      </c>
+      <c r="E102">
+        <v>39.830007999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="1">
+        <v>98.6</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Slavens K-8 School, 98.6</v>
+      </c>
+      <c r="D103">
+        <v>-104.955697</v>
+      </c>
+      <c r="E103">
+        <v>39.661318999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith Elementary School, 13.4</v>
+      </c>
+      <c r="D104">
+        <v>-104.91866400000001</v>
+      </c>
+      <c r="E104">
+        <v>39.767290000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Southmoor Elementary School, 85.6</v>
+      </c>
+      <c r="D105">
+        <v>-104.912139</v>
+      </c>
+      <c r="E105">
+        <v>39.647714000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Steck Elementary School, 96.5</v>
+      </c>
+      <c r="D106">
+        <v>-104.939178</v>
+      </c>
+      <c r="E106">
+        <v>39.723754999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Stedman Elementary School, 18.1</v>
+      </c>
+      <c r="D107">
+        <v>-104.93266800000001</v>
+      </c>
+      <c r="E107">
+        <v>39.759062999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Steele Elementary School, 91.3</v>
+      </c>
+      <c r="D108">
+        <v>-104.97187700000001</v>
+      </c>
+      <c r="E108">
+        <v>39.710214999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="1">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Swansea Elementary School, 14</v>
+      </c>
+      <c r="D109">
+        <v>-104.95688199999999</v>
+      </c>
+      <c r="E109">
+        <v>39.781058999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Swigert International School, 93.6</v>
+      </c>
+      <c r="D110">
+        <v>-104.898731</v>
+      </c>
+      <c r="E110">
+        <v>39.763710000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="1">
+        <v>81</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Teller Elementary School, 81</v>
+      </c>
+      <c r="D111">
+        <v>-104.943831</v>
+      </c>
+      <c r="E111">
+        <v>39.734391000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Traylor Academy, 26.8</v>
+      </c>
+      <c r="D112">
+        <v>-105.059657</v>
+      </c>
+      <c r="E112">
+        <v>39.660570999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Trevista At Horace Mann, 9.1</v>
+      </c>
+      <c r="D113">
+        <v>-105.004041</v>
+      </c>
+      <c r="E113">
+        <v>39.773522999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+      <c r="B114" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>University Park Elementary School, 85.6</v>
+      </c>
+      <c r="D114">
+        <v>-104.94663</v>
+      </c>
+      <c r="E114">
+        <v>39.933548999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Valdez Elementary School, 59.7</v>
+      </c>
+      <c r="D115">
+        <v>-105.01850899999999</v>
+      </c>
+      <c r="E115">
+        <v>39.758747999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Valley View K-8, 16.3</v>
+      </c>
+      <c r="D116">
+        <v>-104.99523000000001</v>
+      </c>
+      <c r="E116">
+        <v>39.823169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="1">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Valverde Elementary School, 12</v>
+      </c>
+      <c r="D117">
+        <v>-105.01195</v>
+      </c>
+      <c r="E117">
+        <v>39.710239999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Westerly Creek Elementary, 95.6</v>
+      </c>
+      <c r="D118">
+        <v>-104.88539900000001</v>
+      </c>
+      <c r="E118">
+        <v>39.756247999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Whittier Ece-8 School, 23.2</v>
+      </c>
+      <c r="D119">
+        <v>-104.973213</v>
+      </c>
+      <c r="E119">
+        <v>39.752997000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>William (Bill) Roberts Ece-8 School, 94.4</v>
+      </c>
+      <c r="D120">
+        <v>-104.88494300000001</v>
+      </c>
+      <c r="E120">
+        <v>39.747951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6958,15 +9528,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100449AE280EC23CA4A850480A105F5A6F6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f6dc693dd6a4705d5d5b1e4316732e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dee65d64-8431-465f-836f-5d99924a0ee8" xmlns:ns4="8fd88b06-fa2c-407b-a07e-0b1005b59028" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a12a1166b8b2e131ffd8f1cc69b2ddc2" ns3:_="" ns4:_="">
     <xsd:import namespace="dee65d64-8431-465f-836f-5d99924a0ee8"/>
@@ -7183,32 +9744,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9138024-5CBD-42E5-9FB4-6248A0987542}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8fd88b06-fa2c-407b-a07e-0b1005b59028"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="dee65d64-8431-465f-836f-5d99924a0ee8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fd88b06-fa2c-407b-a07e-0b1005b59028"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6E7165-8F8B-4B74-B8D0-F92EC8A00E82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB1226B2-2B90-4A48-85C6-D7FF4E224F9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7225,4 +9787,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6E7165-8F8B-4B74-B8D0-F92EC8A00E82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>